--- a/etc/Database/Zulu 데이터베이스 디자인.xlsx
+++ b/etc/Database/Zulu 데이터베이스 디자인.xlsx
@@ -3,19 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{E4113879-680E-4F91-A6BD-A34E3DC29E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A93E2C5-3853-4D8D-B456-D172383837AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="8100" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Config!$8:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Member!$8:$8</definedName>
+    <definedName name="열제목1" localSheetId="1">간단한송장2[[#Headers],[항목 번호]]</definedName>
     <definedName name="열제목1">간단한송장[[#Headers],[항목 번호]]</definedName>
+    <definedName name="행제목영역1..C7" localSheetId="1">Config!#REF!</definedName>
     <definedName name="행제목영역1..C7">Member!#REF!</definedName>
+    <definedName name="행제목영역3..G26" localSheetId="1">Config!#REF!</definedName>
     <definedName name="행제목영역3..G26">Member!#REF!</definedName>
+    <definedName name="행지목영역2..G5" localSheetId="1">Config!#REF!</definedName>
     <definedName name="행지목영역2..G5">Member!#REF!</definedName>
+    <definedName name="회사_이름" localSheetId="1">Config!$B$1</definedName>
     <definedName name="회사_이름">Member!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>항목 번호</t>
   </si>
@@ -161,6 +168,10 @@
   </si>
   <si>
     <t>A00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +186,7 @@
     <numFmt numFmtId="178" formatCode="#_)"/>
     <numFmt numFmtId="179" formatCode="[&lt;=999999]####\-####;\(0##\)\ ####\-####"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.749961851863155"/>
@@ -363,6 +374,12 @@
       <sz val="14"/>
       <color theme="4" tint="-0.24994659260841701"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -789,41 +806,41 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -880,35 +897,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1022,6 +1011,34 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
@@ -1036,6 +1053,146 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
@@ -1046,41 +1203,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1177,12 +1299,12 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="송장" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="lastColumn" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="lastColumn" dxfId="24"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1265,7 +1387,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="간단한송장" displayName="간단한송장" ref="B3:H15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="간단한송장" displayName="간단한송장" ref="B3:H15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B3:H15" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1276,13 +1398,42 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="항목 번호" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="설명" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="명칭" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="형식" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="비고" dataDxfId="4" dataCellStyle="통화"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="비고2" dataDxfId="3" dataCellStyle="통화"/>
-    <tableColumn id="3" xr3:uid="{8EEC2A2B-10EC-4A35-91ED-E3A99812D9BA}" name="예시" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="항목 번호" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="설명" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="명칭" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="형식" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="비고" dataDxfId="13" dataCellStyle="통화"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="비고2" dataDxfId="12" dataCellStyle="통화"/>
+    <tableColumn id="3" xr3:uid="{8EEC2A2B-10EC-4A35-91ED-E3A99812D9BA}" name="예시" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="송장" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="항목 번호, 설명, 수량, 단가, 할인 및 가격이 포함된 송장 목록"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A68115B-4654-4135-B28B-5267A185F4E6}" name="간단한송장2" displayName="간단한송장2" ref="B3:H15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B3:H15" xr:uid="{00000000-0009-0000-0100-000004000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B0D92A15-C3C2-48F4-95F5-BD3E0C9CE170}" name="항목 번호" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{6FA403AC-7AC9-442D-A1FE-2299459B9A04}" name="설명" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{6B0A1161-8899-4BB3-AD9C-15546F0BF7EB}" name="명칭" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{89258175-4766-47FE-9EAD-9B45753895A9}" name="형식" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{6C3CE9AB-3370-4ABA-A9BB-B3CBF63C255D}" name="비고" dataDxfId="2" dataCellStyle="통화"/>
+    <tableColumn id="11" xr3:uid="{FE39DBA0-BE2A-42F2-9DDB-E59997F1A420}" name="비고2" dataDxfId="1" dataCellStyle="통화"/>
+    <tableColumn id="3" xr3:uid="{1E69D17F-0A92-4FED-93C9-BE4B5BAB74D0}" name="예시" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="송장" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1526,7 +1677,7 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1544,261 +1695,261 @@
   <sheetData>
     <row r="1" spans="1:9" ht="57.95" customHeight="1" thickBot="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" thickTop="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="13"/>
-      <c r="B4" s="19">
+      <c r="A4" s="12"/>
+      <c r="B4" s="18">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>1</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="19">
+      <c r="A5" s="12"/>
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="13"/>
-      <c r="B6" s="19">
+      <c r="A6" s="12"/>
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="19">
+      <c r="A7" s="12"/>
+      <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="19">
+      <c r="A8" s="12"/>
+      <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="19">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="13"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="16.5">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="16.5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="16.5">
-      <c r="A14" s="13"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="33.950000000000003" customHeight="1">
@@ -1841,12 +1992,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H4:H15">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H15">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1871,4 +2022,297 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A74E9D-736F-472D-A983-821E4A374078}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="33.950000000000003" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="19.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="75.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="57.95" customHeight="1" thickBot="1">
+      <c r="A1" s="8"/>
+      <c r="B1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" thickTop="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="19">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="33.950000000000003" customHeight="1">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" ht="33.950000000000003" customHeight="1">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" ht="33.950000000000003" customHeight="1">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" ht="33.950000000000003" customHeight="1">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" ht="33.950000000000003" customHeight="1">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" ht="33.950000000000003" customHeight="1">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" ht="33.950000000000003" customHeight="1">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" ht="33.950000000000003" customHeight="1">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" ht="33.950000000000003" customHeight="1">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" ht="33.950000000000003" customHeight="1">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="2:9" ht="33.950000000000003" customHeight="1">
+      <c r="I26" s="6"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1" sort="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <conditionalFormatting sqref="H4:H15">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H15">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 회사 이름을 수정합니다. 셀 B2:G3에 회사 주소, 전화 번호, 팩스, 전자 메일 및 웹 사이트를 입력합니다. 셀 B4:G7에 청구 세부 정보를 입력합니다" sqref="B1:C1" xr:uid="{59CF7431-F2C4-4668-998A-D81154851CE3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 송장 대상을 입력합니다." sqref="C2" xr:uid="{75F962B3-9D9C-4A68-B4B9-C7BA5F1B29AA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 송장 대상을 입력합니다." sqref="B2" xr:uid="{F93BB030-9770-4A8B-9FB0-C3CABC1EA4A4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 워크시트를 사용하여 간단한 송장을 작성합니다." sqref="A1" xr:uid="{205BE592-3FE4-4A89-A288-DC5F1CF156D0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 품목 번호를 입력합니다." sqref="B3" xr:uid="{8C209350-95BE-4D82-A144-BBC881417FA0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 머리글 아래의 열에는 설명을 입력합니다." sqref="C3" xr:uid="{8CF87851-45A0-45A1-828F-826AF6255B67}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 머리글 아래의 열에는 수량을 입력합니다." sqref="D3" xr:uid="{8E4EDE13-8962-4EAA-839A-98ED8CC7F4BE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 머리글 아래의 열에는 단가를 입력합니다." sqref="E3" xr:uid="{D1651573-59DE-4C1C-8FEC-3D4FE411D185}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 할인액을 입력합니다." sqref="F3:H3" xr:uid="{F038AF8C-FE86-4C97-B968-4107F614F08B}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="1" bottom="1" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter differentFirst="1" alignWithMargins="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>